--- a/results/results/combined.xlsx
+++ b/results/results/combined.xlsx
@@ -5,27 +5,33 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miriam Wagner\Documents\Masterarbeit\PythonCode\home_version\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miriam Wagner\Documents\Masterarbeit\PythonCode\results\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9522EC0E-60EC-44C1-A3C7-F71BDFC36B45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360208FE-470B-4D84-886B-33DA93E59F51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="19">
   <si>
     <t>Annonymizer</t>
   </si>
@@ -48,9 +54,6 @@
     <t>fitness</t>
   </si>
   <si>
-    <t>precision</t>
-  </si>
-  <si>
     <t>f1-score</t>
   </si>
   <si>
@@ -67,6 +70,24 @@
   </si>
   <si>
     <t>hours</t>
+  </si>
+  <si>
+    <t>seq_time</t>
+  </si>
+  <si>
+    <t>precision (Align ETC1, balanced)</t>
+  </si>
+  <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>set_count</t>
+  </si>
+  <si>
+    <t>oriiginal</t>
   </si>
 </sst>
 </file>
@@ -384,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -418,42 +439,970 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
+        <v>18</v>
+      </c>
+      <c r="G2">
+        <v>0.90180000000000005</v>
+      </c>
+      <c r="H2">
+        <v>0.40620000000000001</v>
+      </c>
+      <c r="I2">
+        <f>2*G2*H2/(G2+H2)</f>
+        <v>0.56010880733944957</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>20</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>0.2</v>
       </c>
-      <c r="E2">
-        <v>0.7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2">
-        <v>0.93799999999999994</v>
+      <c r="E3">
+        <v>0.7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>0.7238</v>
+      </c>
+      <c r="H3">
+        <v>0.69120000000000004</v>
+      </c>
+      <c r="I3">
+        <f>2*G3*H3/(G3+H3)</f>
+        <v>0.7071244664310955</v>
+      </c>
+      <c r="J3">
+        <v>471</v>
+      </c>
+      <c r="K3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>0.5454</v>
+      </c>
+      <c r="H4">
+        <v>0.5958</v>
+      </c>
+      <c r="I4">
+        <f>2*G4*H4/(G4+H4)</f>
+        <v>0.56948706624605672</v>
+      </c>
+      <c r="J4">
+        <v>62</v>
+      </c>
+      <c r="K4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>0.9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>0.7238</v>
+      </c>
+      <c r="H5">
+        <v>0.68920000000000003</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:I12" si="0">2*G5*H5/(G5+H5)</f>
+        <v>0.70607637650389243</v>
+      </c>
+      <c r="J5">
+        <v>471</v>
+      </c>
+      <c r="K5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6">
+        <v>0.5454</v>
+      </c>
+      <c r="H6">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>0.55885944206008586</v>
+      </c>
+      <c r="J6">
+        <v>62</v>
+      </c>
+      <c r="K6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>0.5</v>
+      </c>
+      <c r="E7">
+        <v>0.7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>0.72440000000000004</v>
+      </c>
+      <c r="H7">
+        <v>0.65669999999999995</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>0.68889071030338134</v>
+      </c>
+      <c r="J7">
+        <v>524</v>
+      </c>
+      <c r="K7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8">
+        <v>0.57189999999999996</v>
+      </c>
+      <c r="H8">
+        <v>0.62849999999999995</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>0.5988656281239586</v>
+      </c>
+      <c r="J8">
+        <v>73</v>
+      </c>
+      <c r="K8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>0.9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9">
+        <v>0.72440000000000004</v>
+      </c>
+      <c r="H9">
+        <v>0.65669999999999995</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>0.68889071030338134</v>
+      </c>
+      <c r="J9">
+        <v>524</v>
+      </c>
+      <c r="K9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10">
+        <v>0.57189999999999996</v>
+      </c>
+      <c r="H10">
+        <v>0.62519999999999998</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>0.5973634282850222</v>
+      </c>
+      <c r="J10">
+        <v>73</v>
+      </c>
+      <c r="K10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>160</v>
+      </c>
+      <c r="D11">
+        <v>0.2</v>
+      </c>
+      <c r="E11">
+        <v>0.7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11">
+        <v>0.62590000000000001</v>
+      </c>
+      <c r="H11">
+        <v>0.6391</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>0.63243113043478261</v>
+      </c>
+      <c r="J11">
+        <v>266</v>
+      </c>
+      <c r="K11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12">
+        <v>0.1691</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>0.28928235394748097</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>0.9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13">
+        <v>0.62590000000000001</v>
+      </c>
+      <c r="H13">
+        <v>0.6391</v>
+      </c>
+      <c r="I13">
+        <f t="shared" ref="I13:I42" si="1">2*G13*H13/(G13+H13)</f>
+        <v>0.63243113043478261</v>
+      </c>
+      <c r="J13">
+        <v>266</v>
+      </c>
+      <c r="K13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14">
+        <v>0.1691</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>0.28928235394748097</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>0.5</v>
+      </c>
+      <c r="E15">
+        <v>0.7</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15">
+        <v>0.62590000000000001</v>
+      </c>
+      <c r="H15">
+        <v>0.6391</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>0.63243113043478261</v>
+      </c>
+      <c r="J15">
+        <v>266</v>
+      </c>
+      <c r="K15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16">
+        <v>0.1691</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>0.28928235394748097</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>0.9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17">
+        <v>0.62590000000000001</v>
+      </c>
+      <c r="H17">
+        <v>0.6391</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>0.63243113043478261</v>
+      </c>
+      <c r="J17">
+        <v>266</v>
+      </c>
+      <c r="K17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18">
+        <v>0.1691</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>0.28928235394748097</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <v>0.2</v>
+      </c>
+      <c r="E19">
+        <v>0.7</v>
+      </c>
+      <c r="F19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19">
+        <v>0.94020000000000004</v>
+      </c>
+      <c r="H19">
+        <v>0.3468</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>0.50669986013986024</v>
+      </c>
+      <c r="J19">
+        <v>842</v>
+      </c>
+      <c r="K19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>0.9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20">
+        <v>0.90180000000000005</v>
+      </c>
+      <c r="H20">
+        <v>0.40629999999999999</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>0.56020386820579471</v>
+      </c>
+      <c r="J20">
+        <v>842</v>
+      </c>
+      <c r="K20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>0.5</v>
+      </c>
+      <c r="E21">
+        <v>0.7</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21">
+        <v>0.90180000000000005</v>
+      </c>
+      <c r="H21">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>0.56654000608457555</v>
+      </c>
+      <c r="J21">
+        <v>846</v>
+      </c>
+      <c r="K21">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>0.9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22">
+        <v>0.90180000000000005</v>
+      </c>
+      <c r="H22">
+        <v>0.4</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>0.55418651098479033</v>
+      </c>
+      <c r="J22">
+        <v>846</v>
+      </c>
+      <c r="K22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>160</v>
+      </c>
+      <c r="D23">
+        <v>0.2</v>
+      </c>
+      <c r="E23">
+        <v>0.7</v>
+      </c>
+      <c r="F23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23">
+        <v>0.92510000000000003</v>
+      </c>
+      <c r="H23">
+        <v>0.44590000000000002</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>0.60175359591539024</v>
+      </c>
+      <c r="J23">
+        <v>842</v>
+      </c>
+      <c r="K23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>0.9</v>
+      </c>
+      <c r="F24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24">
+        <v>0.92510000000000003</v>
+      </c>
+      <c r="H24">
+        <v>0.45279999999999998</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>0.60800534146164453</v>
+      </c>
+      <c r="J24">
+        <v>842</v>
+      </c>
+      <c r="K24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>0.5</v>
+      </c>
+      <c r="E25">
+        <v>0.7</v>
+      </c>
+      <c r="F25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25">
+        <v>0.92510000000000003</v>
+      </c>
+      <c r="H25">
+        <v>0.44440000000000002</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>0.60038618473895589</v>
+      </c>
+      <c r="J25">
+        <v>842</v>
+      </c>
+      <c r="K25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>0.9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26">
+        <v>0.92510000000000003</v>
+      </c>
+      <c r="H26">
+        <v>0.4471</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>0.60284537239469471</v>
+      </c>
+      <c r="J26">
+        <v>842</v>
+      </c>
+      <c r="K26">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>20</v>
+      </c>
+      <c r="D27">
+        <v>0.2</v>
+      </c>
+      <c r="E27">
+        <v>0.7</v>
+      </c>
+      <c r="F27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27">
+        <v>0.93810000000000004</v>
+      </c>
+      <c r="H27">
+        <v>0.42</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>0.58022531477799866</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>0.9</v>
+      </c>
+      <c r="F28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28">
+        <v>0.93810000000000004</v>
+      </c>
+      <c r="H28">
+        <v>0.4088</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>0.56944877867696186</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>0.5</v>
+      </c>
+      <c r="E29">
+        <v>0.7</v>
+      </c>
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29">
+        <v>0.90180000000000005</v>
+      </c>
+      <c r="H29">
+        <v>0.40770000000000001</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>0.56153319587628858</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>0.9</v>
+      </c>
+      <c r="F30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30">
+        <v>0.90180000000000005</v>
+      </c>
+      <c r="H30">
+        <v>0.41120000000000001</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>0.56484411271896418</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>160</v>
+      </c>
+      <c r="D31">
+        <v>0.2</v>
+      </c>
+      <c r="E31">
+        <v>0.7</v>
+      </c>
+      <c r="F31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31">
+        <v>0.90439999999999998</v>
+      </c>
+      <c r="H31">
+        <v>0.4083</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>0.56260610954521217</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <v>0.9</v>
+      </c>
+      <c r="F32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32">
+        <v>0.90439999999999998</v>
+      </c>
+      <c r="H32">
+        <v>0.42230000000000001</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>0.57575656893042881</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>0.5</v>
+      </c>
+      <c r="E33">
+        <v>0.7</v>
+      </c>
+      <c r="F33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33">
+        <v>0.90439999999999998</v>
+      </c>
+      <c r="H33">
+        <v>0.40260000000000001</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="1"/>
+        <v>0.55717129303749047</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <v>0.9</v>
+      </c>
+      <c r="F34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34">
+        <v>0.90439999999999998</v>
+      </c>
+      <c r="H34">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="1"/>
+        <v>0.57174712643678149</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>20</v>
+      </c>
+      <c r="D35">
+        <v>0.2</v>
+      </c>
+      <c r="E35">
+        <v>0.7</v>
+      </c>
+      <c r="F35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35">
+        <v>0.93810000000000004</v>
+      </c>
+      <c r="H35">
+        <v>0.41049999999999998</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="1"/>
+        <v>0.57109602550793415</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <v>0.9</v>
+      </c>
+      <c r="F36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36">
+        <v>0.93810000000000004</v>
+      </c>
+      <c r="H36">
+        <v>0.41160000000000002</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="1"/>
+        <v>0.57215967992887307</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>0.5</v>
+      </c>
+      <c r="E37">
+        <v>0.7</v>
+      </c>
+      <c r="F37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37">
+        <v>0.90180000000000005</v>
+      </c>
+      <c r="H37">
+        <v>0.40539999999999998</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="1"/>
+        <v>0.55934779681762548</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <v>0.9</v>
+      </c>
+      <c r="F38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38">
+        <v>0.90180000000000005</v>
+      </c>
+      <c r="H38">
+        <v>0.40410000000000001</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="1"/>
+        <v>0.55810916609235006</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>160</v>
+      </c>
+      <c r="D39">
+        <v>0.2</v>
+      </c>
+      <c r="E39">
+        <v>0.7</v>
+      </c>
+      <c r="F39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39">
+        <v>0.90439999999999998</v>
+      </c>
+      <c r="H39">
+        <v>0.40810000000000002</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="1"/>
+        <v>0.56241621333333336</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <v>0.9</v>
+      </c>
+      <c r="F40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40">
+        <v>0.90439999999999998</v>
+      </c>
+      <c r="H40">
+        <v>0.4214</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="1"/>
+        <v>0.57491953537486795</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>0.5</v>
+      </c>
+      <c r="E41">
+        <v>0.7</v>
+      </c>
+      <c r="F41" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41">
+        <v>0.90439999999999998</v>
+      </c>
+      <c r="H41">
+        <v>0.40970000000000001</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="1"/>
+        <v>0.56393376455368693</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E42">
+        <v>0.9</v>
+      </c>
+      <c r="F42" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42">
+        <v>0.90439999999999998</v>
+      </c>
+      <c r="H42">
+        <v>0.41160000000000002</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="1"/>
+        <v>0.56573106382978722</v>
       </c>
     </row>
   </sheetData>
